--- a/Symbol/Bill_Of_Materials.xlsx
+++ b/Symbol/Bill_Of_Materials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Allegro\Project\CanhMai\CNCMachineDevelopBoard\Done_To_HCMUT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Allegro\Project\CanhMai\CNCMachineDevelopBoard\Done_To_HCMUT\CNC-Machine_Orcad-Allegro-v17.4\Symbol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D3D6C4-A00C-47D7-A4C8-BA57EA92ADEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E53B304-6A7F-467A-BBC1-9343B42041C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A7E84F01-F860-45B1-876B-9B0F7CB035C1}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>CNC MACHINE DEVELOP BOARD  Revised: Sunday, November 10, 2024</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>16Mhz 5032</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>5MM</t>
   </si>
 </sst>
 </file>
@@ -1168,9 +1174,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C0FFB7-CB1D-4E07-9DAB-CB745C28C556}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="36" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1231,6 +1243,9 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -1246,7 +1261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1259,8 +1274,14 @@
       <c r="D17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1273,8 +1294,11 @@
       <c r="D18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1287,8 +1311,11 @@
       <c r="D19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1304,8 +1331,11 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="E21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1336,7 +1369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>9</v>
       </c>
@@ -1350,7 +1383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1364,7 +1397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>11</v>
       </c>
@@ -1378,7 +1411,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>12</v>
       </c>
@@ -1392,7 +1425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1406,7 +1439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>14</v>
       </c>
@@ -1423,7 +1456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>15</v>
       </c>
@@ -1437,7 +1470,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>16</v>
       </c>
@@ -1451,7 +1484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>17</v>
       </c>
@@ -1465,7 +1498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>18</v>
       </c>
